--- a/docs/PT1/PT1_03.09.2024_output.xlsx
+++ b/docs/PT1/PT1_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,770 +505,912 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731087909.0106726</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731087911.523109</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731087909.0106726.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731087911.523109.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>243.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247.33</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-3.830000000000013</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731087921.2466865</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731087923.4172015</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731087921.2466865.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731087923.4172015.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>243.5</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.33</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-3.830000000000013</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-1.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731087931.9982529</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731087934.5132277</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731087931.9982529.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731087934.5132277.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>244.27</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>247.8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-3.530000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-1.45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731087952.057233</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731087952.5142527</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087952.057233.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087952.5142527.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>124.22</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>124.65</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4300000000000068</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731087952.949099</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731087954.0351222</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087952.949099.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087954.0351222.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>124.32</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>123.71</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.6099999999999994</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731087954.5191755</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731087954.7929106</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087954.5191755.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731087954.7929106.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>123.03</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>123.39</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.3599999999999994</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731087966.9290245</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731087967.078216</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731087966.9290245.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731087967.078216.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>6170.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6180.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>10</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731087979.913108</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731087981.6639347</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731087979.913108.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731087981.6639347.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>193.41</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>193.86</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.4500000000000171</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731088003.495254</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731088004.9241738</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088003.495254.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088004.9241738.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>11.975</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>11.987</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.01200000000000045</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731088038.846898</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731088040.6642482</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088038.846898.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088040.6642482.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>40.895</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>41.235</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.3399999999999963</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731088052.1251338</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731088054.7765515</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088052.1251338.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088054.7765515.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>1170.4</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>1187.6</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-17.19999999999982</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-1.47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731088076.2797363</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731088077.829694</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088076.2797363.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088077.829694.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>86.73999999999999</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>87.48</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7400000000000091</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.8500000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731088110.11062</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731088111.7824059</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088110.11062.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088111.7824059.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.2785</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>0.2794</v>
       </c>
-      <c r="K15" t="n">
-        <v>-0.0009000000000000119</v>
+      <c r="M15" t="n">
+        <v>-0.0008999999999999564</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731088147.0186105</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731088147.5791867</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088147.0186105.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088147.5791867.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>113.18</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>113.59</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731088151.4449334</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731088151.4449334.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731088151.4449334.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>PT1</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>113.47</v>
       </c>
-      <c r="J17" t="n">
-        <v>113.47</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.8700000000000045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,6 +1448,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1304,6 +1476,15 @@
       <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1312,11 +1493,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4099999999999966</v>
+        <v>-0.460000000000008</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
+      <c r="D3" t="n">
+        <v>-0.230000000000004</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1330,6 +1520,15 @@
       <c r="C4" t="n">
         <v>2</v>
       </c>
+      <c r="D4" t="n">
+        <v>-3.680000000000007</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.51</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1343,6 +1542,15 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
+      <c r="D5" t="n">
+        <v>-17.19999999999982</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1356,6 +1564,15 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.01200000000000045</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1369,6 +1586,15 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1382,6 +1608,15 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.3399999999999963</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1395,6 +1630,15 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.4500000000000171</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.23</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1403,11 +1647,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0009000000000000119</v>
+        <v>-0.0008999999999999564</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.0008999999999999564</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1421,6 +1674,15 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
+      <c r="D11" t="n">
+        <v>-3.830000000000013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1434,6 +1696,15 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.7400000000000091</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.8500000000000001</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1447,6 +1718,11 @@
       <c r="C13" t="n">
         <v>0</v>
       </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
